--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobro\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC792309-3CDF-427D-A6B4-8601DD645BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C6EEC07-3C4E-4527-8F5E-489314D2D8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40361D75-48EF-4227-9FE9-4D18B5F6D7FB}"/>
   </bookViews>
@@ -79,7 +79,8 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Не оценено: -1?</t>
+          <t>Строка
+Без оценки - пустая строка?</t>
         </r>
       </text>
     </comment>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -178,6 +179,9 @@
   </si>
   <si>
     <t>deadline</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -301,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -310,6 +314,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -319,8 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -638,7 +643,7 @@
   <dimension ref="B1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,19 +653,19 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="12"/>
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="12"/>
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -711,21 +716,21 @@
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="I6" s="8" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
@@ -743,7 +748,7 @@
       <c r="F7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -772,7 +777,7 @@
       <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -796,21 +801,21 @@
     </row>
     <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="12"/>
+      <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="I11" s="8" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="I11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -837,7 +842,7 @@
       <c r="K12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -878,19 +883,20 @@
     </row>
     <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="H16" s="8" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="I16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,57 +909,62 @@
       <c r="E17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="2"/>
-      <c r="H18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="5"/>
+      <c r="G18" s="2"/>
+      <c r="I18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="3" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="I19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="B16:G16"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
